--- a/23. 高级机器学习模型/LightGBM参数表.xlsx
+++ b/23. 高级机器学习模型/LightGBM参数表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\AI-Note\23. 高级机器学习模型\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E88992B-4F2B-49CC-A499-43C8AC075EF6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2F241D-5450-4024-89DD-98C0633E0E2D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="52057" yWindow="-109" windowWidth="26301" windowHeight="14305" activeTab="1" xr2:uid="{D339B34A-B87C-CC47-8E4E-9E42D71640AD}"/>
+    <workbookView xWindow="52057" yWindow="-109" windowWidth="26301" windowHeight="14305" xr2:uid="{D339B34A-B87C-CC47-8E4E-9E42D71640AD}"/>
   </bookViews>
   <sheets>
     <sheet name="LightGBM参数表" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="257">
   <si>
     <t>参数名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -494,10 +494,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>选择阈值的随机数种子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>当评价指标在规定轮数没有提升时停止训练</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1062,6 +1058,14 @@
   </si>
   <si>
     <t>设置max_depth限制树算法生长过深</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否使用极限树模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择极限树阈值的随机数种子</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1220,6 +1224,12 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1238,14 +1248,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1563,8 +1567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92A6FB2B-41D4-A74A-A304-2EF5D736EFCE}">
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15.65"/>
@@ -1578,14 +1582,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.350000000000001">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:6" ht="16.3">
       <c r="A2" s="7" t="s">
@@ -1809,14 +1813,14 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="18.350000000000001">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
     </row>
     <row r="19" spans="1:6" ht="16.3">
       <c r="A19" s="7" t="s">
@@ -1848,13 +1852,13 @@
       <c r="C20" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="14" t="s">
         <v>84</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="F20" s="16" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1868,11 +1872,11 @@
       <c r="C21" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="D21" s="12"/>
+      <c r="D21" s="14"/>
       <c r="E21" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F21" s="15"/>
+      <c r="F21" s="17"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="8" t="s">
@@ -1930,7 +1934,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>88</v>
@@ -1950,7 +1954,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>88</v>
@@ -1970,7 +1974,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>88</v>
@@ -1990,7 +1994,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>88</v>
@@ -2010,7 +2014,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>23</v>
@@ -2027,7 +2031,7 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>23</v>
@@ -2041,7 +2045,7 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>88</v>
@@ -2061,7 +2065,7 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>88</v>
@@ -2101,6 +2105,9 @@
       <c r="C34" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="E34" s="1" t="s">
+        <v>255</v>
+      </c>
       <c r="F34" s="1" t="s">
         <v>110</v>
       </c>
@@ -2116,12 +2123,12 @@
         <v>6</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>113</v>
+        <v>256</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>23</v>
@@ -2130,10 +2137,10 @@
         <v>0</v>
       </c>
       <c r="E36" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2147,12 +2154,12 @@
         <v>0</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>88</v>
@@ -2161,15 +2168,15 @@
         <v>0</v>
       </c>
       <c r="E38" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>88</v>
@@ -2178,15 +2185,15 @@
         <v>0</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>88</v>
@@ -2195,10 +2202,10 @@
         <v>0</v>
       </c>
       <c r="D40" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2212,18 +2219,18 @@
         <v>0</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E41" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>88</v>
@@ -2232,18 +2239,18 @@
         <v>0</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E42" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F42" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>88</v>
@@ -2252,13 +2259,13 @@
         <v>0.1</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2272,10 +2279,10 @@
         <v>50</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2289,13 +2296,13 @@
         <v>0.5</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2309,10 +2316,10 @@
         <v>0</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2326,10 +2333,10 @@
         <v>0</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2343,10 +2350,10 @@
         <v>4</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2360,13 +2367,13 @@
         <v>0.2</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2380,13 +2387,13 @@
         <v>0.1</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E50" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F50" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2400,10 +2407,10 @@
         <v>100</v>
       </c>
       <c r="D51" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2417,13 +2424,13 @@
         <v>32</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2437,10 +2444,10 @@
         <v>10</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2454,10 +2461,10 @@
         <v>10</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F54" s="2"/>
     </row>
@@ -2472,15 +2479,15 @@
         <v>4</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>23</v>
@@ -2489,55 +2496,55 @@
         <v>20</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E56" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F56" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D57" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E57" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C58" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F58" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>88</v>
@@ -2546,47 +2553,47 @@
         <v>0</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E60" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F60" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="E61" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2600,10 +2607,10 @@
         <v>0.9</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2617,15 +2624,15 @@
         <v>1</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>88</v>
@@ -2634,10 +2641,10 @@
         <v>1</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F64" s="2"/>
     </row>
@@ -2646,17 +2653,17 @@
         <v>79</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F65" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2664,16 +2671,16 @@
         <v>80</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2687,13 +2694,13 @@
         <v>0</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2701,18 +2708,18 @@
         <v>82</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>23</v>
@@ -2721,41 +2728,41 @@
         <v>1</v>
       </c>
       <c r="D69" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E69" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C71" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E71" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="E71" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="F71" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2769,18 +2776,18 @@
         <v>0</v>
       </c>
       <c r="D72" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E72" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E72" s="1" t="s">
-        <v>181</v>
-      </c>
       <c r="F72" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>23</v>
@@ -2789,10 +2796,10 @@
         <v>-1</v>
       </c>
       <c r="E73" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F73" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -2811,7 +2818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F79B47FF-7863-624F-8803-8F33944433A4}">
   <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -2822,238 +2829,238 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.350000000000001">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="B1" s="14"/>
+    </row>
+    <row r="2" spans="1:2" ht="18.350000000000001">
+      <c r="A2" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="B1" s="12"/>
-    </row>
-    <row r="2" spans="1:2" ht="18.350000000000001">
-      <c r="A2" s="19" t="s">
-        <v>249</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="12" t="s">
+      <c r="B3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="14"/>
+      <c r="B4" t="s">
         <v>252</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="14"/>
+      <c r="B5" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="12"/>
-      <c r="B4" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="12"/>
-      <c r="B5" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" s="17" customFormat="1"/>
+    <row r="12" spans="1:2" s="11" customFormat="1"/>
     <row r="15" spans="1:2" ht="18.350000000000001">
-      <c r="A15" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="B15" s="16"/>
+      <c r="A15" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="B15" s="18"/>
     </row>
     <row r="16" spans="1:2" ht="18.350000000000001">
       <c r="A16" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>249</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B17" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
+        <v>246</v>
+      </c>
+      <c r="B18" t="s">
         <v>247</v>
-      </c>
-      <c r="B18" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
+        <v>244</v>
+      </c>
+      <c r="B19" t="s">
         <v>245</v>
-      </c>
-      <c r="B19" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
+        <v>240</v>
+      </c>
+      <c r="B22" t="s">
         <v>241</v>
-      </c>
-      <c r="B22" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
+        <v>242</v>
+      </c>
+      <c r="B23" t="s">
         <v>243</v>
       </c>
-      <c r="B23" t="s">
-        <v>244</v>
-      </c>
     </row>
     <row r="26" spans="1:2" ht="18.350000000000001">
-      <c r="A26" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="B26" s="16"/>
+      <c r="A26" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="B26" s="18"/>
     </row>
     <row r="27" spans="1:2" ht="18.350000000000001">
       <c r="A27" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="B27" s="10" t="s">
         <v>249</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B28" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B30" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B32" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="18.350000000000001">
-      <c r="A36" s="16" t="s">
-        <v>210</v>
-      </c>
-      <c r="B36" s="16"/>
+      <c r="A36" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="B36" s="18"/>
     </row>
     <row r="37" spans="1:2" ht="18.350000000000001">
       <c r="A37" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="B37" s="10" t="s">
         <v>249</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B40" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B41" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B42" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B44" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B45" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
+        <v>234</v>
+      </c>
+      <c r="B47" t="s">
         <v>235</v>
-      </c>
-      <c r="B47" t="s">
-        <v>236</v>
       </c>
     </row>
   </sheetData>
